--- a/인게임 시스템/칸.xlsx
+++ b/인게임 시스템/칸.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9052a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9052a\Downloads\Sheperd_Holidays\인게임 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="11655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기본 비율 및 칸 치수" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">가로 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>빈공간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 ~ 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35 ~ 42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>늑대 공격 장소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,22 +88,6 @@
   </si>
   <si>
     <t>늑대가 등장하는 숲 이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넥서스 4칸, 유닛 생산 건물 2칸, 자원 생산 건물 1칸, 인구수 증가 건물 1칸, 울타리 1칸 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27 ~ 33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19 ~ 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 ~ 17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +104,34 @@
   </si>
   <si>
     <t>활성화 시킬 수 있는 공간입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ~ 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥서스 5칸, 유닛 생산 건물 2칸, 자원 생산 건물 2칸, 인구수 증가 건물 2칸, 벽 1칸 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 ~ 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 ~ 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 ~ 34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36 ~ 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +325,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3994,13 +4004,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -4011,7 +4021,56 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352675" y="552450"/>
+          <a:off x="2686050" y="552450"/>
+          <a:ext cx="0" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="직선 연결선 182"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="552450"/>
           <a:ext cx="0" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4055,61 +4114,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="183" name="직선 연결선 182"/>
+        <xdr:cNvPr id="184" name="직선 연결선 183"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6334125" y="552450"/>
-          <a:ext cx="0" cy="2790825"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="184" name="직선 연결선 183"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6667500" y="552450"/>
           <a:ext cx="0" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4238,14 +4248,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -4256,7 +4266,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11639550" y="552450"/>
+          <a:off x="11963400" y="552450"/>
           <a:ext cx="0" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4288,13 +4298,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -4305,7 +4315,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11972925" y="552450"/>
+          <a:off x="12296775" y="552450"/>
           <a:ext cx="0" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4575,6 +4585,566 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468718" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="714375"/>
+          <a:ext cx="468718" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7553325" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10639425" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextBox 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268325" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextBox 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954250" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11925300" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="TextBox 72"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="397225" cy="336246"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="714375"/>
+          <a:ext cx="397225" cy="336246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>칸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4843,8 +5413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4887,10 +5457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R49"/>
+  <dimension ref="A2:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4900,7 +5470,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4911,7 +5481,15 @@
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
       <c r="B18" s="14">
         <v>1</v>
       </c>
@@ -4919,23 +5497,27 @@
         <v>5</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
       <c r="B20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L20" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -4944,17 +5526,21 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
       <c r="B22" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8"/>
@@ -4966,28 +5552,38 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
       <c r="N23" s="4"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
       <c r="B24" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>8</v>
+      </c>
       <c r="B26" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -4997,30 +5593,40 @@
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
       <c r="L26" s="18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
       <c r="B28" s="14">
         <v>26</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
       <c r="B30" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -5034,57 +5640,69 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
       <c r="B32" s="14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>7</v>
+      </c>
       <c r="B34" s="14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="5"/>
       <c r="K34" s="4"/>
       <c r="L34" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
       <c r="B36" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="5"/>
@@ -5093,7 +5711,11 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f>SUM(A18,A20,A22,A24,A26,A28,A30,A32,A34,A36)</f>
+        <v>45</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="11"/>
       <c r="G37" s="4"/>
@@ -5105,7 +5727,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="11"/>
@@ -5118,7 +5740,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5131,19 +5753,19 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D44" s="4"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.3">

--- a/인게임 시스템/칸.xlsx
+++ b/인게임 시스템/칸.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9052a\Downloads\Sheperd_Holidays\인게임 시스템\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9052a\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>넥서스 5칸, 유닛 생산 건물 2칸, 자원 생산 건물 2칸, 인구수 증가 건물 2칸, 벽 1칸 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7 ~ 16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>칸 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넥서스 5칸, 유닛 생산 건물 1칸, 자원 생산 건물 2칸, 인구수 증가 건물 1칸, 벽 1칸 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5460,7 +5460,7 @@
   <dimension ref="A2:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="O21" sqref="O21:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5470,7 +5470,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -5537,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>7</v>
@@ -5580,7 +5580,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>9</v>
@@ -5623,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>11</v>
@@ -5674,7 +5674,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>13</v>
